--- a/src/predicciones/xgboost/producto_4.xlsx
+++ b/src/predicciones/xgboost/producto_4.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,537 +386,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44932</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>1.306019425392151</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44935</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1.035982489585876</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44957</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>1.302995681762695</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44961</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>2.18021559715271</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44964</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1.023504972457886</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44965</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>1.416907072067261</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44990</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>1.370017766952515</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44992</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>0.9936333894729614</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44994</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1.273101091384888</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44999</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1.981306552886963</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>45001</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>1.621627807617188</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>45008</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1.438981771469116</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>45011</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1.931650757789612</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>2</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>45012</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>1.220760583877563</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>2</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>45022</v>
       </c>
       <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
         <v>1.653880476951599</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>45030</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>1.800663709640503</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45032</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1.681269526481628</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45050</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>1.049726128578186</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>45051</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>1.117156505584717</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45073</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1.168433785438538</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45076</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>1.512032270431519</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45077</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>0.9988031983375549</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>2</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45081</v>
       </c>
       <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
         <v>1.059163331985474</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45087</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>1.03925347328186</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45093</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1.277312636375427</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45096</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>1.116153717041016</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45099</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>1.989063739776611</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45106</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>1.622865557670593</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>2</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45107</v>
       </c>
       <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
         <v>1.021462917327881</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>2</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45108</v>
       </c>
       <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
         <v>1.206730246543884</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45113</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>1.257975578308105</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45120</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>2.103154420852661</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45134</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>1.87251353263855</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>2</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45139</v>
       </c>
       <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>1.815593481063843</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>2</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45140</v>
       </c>
       <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
         <v>1.318496346473694</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45144</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>1.053968787193298</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45151</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>1.706150770187378</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45152</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>1.782808184623718</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>2</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45160</v>
       </c>
       <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
         <v>1.862133026123047</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45173</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>1.529330849647522</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>2</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45183</v>
       </c>
       <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
         <v>1.961734652519226</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45189</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>1.577360868453979</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45201</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>1.073721647262573</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45211</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>1.962547779083252</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>2</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45216</v>
       </c>
       <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
         <v>1.278160929679871</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45221</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>1.883878350257874</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45222</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>1.013927698135376</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>2</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45223</v>
       </c>
       <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
         <v>1.449757218360901</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45234</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1.266336679458618</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45240</v>
       </c>
       <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>0.9979486465454102</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>2</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45253</v>
       </c>
       <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
         <v>1.965354204177856</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>2</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45256</v>
       </c>
       <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
         <v>1.753996849060059</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45269</v>
       </c>
       <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>1.799712419509888</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>2</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45278</v>
       </c>
       <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
         <v>0.9463745951652527</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45282</v>
       </c>
       <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>1.754767179489136</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45289</v>
       </c>
       <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
         <v>1.320060014724731</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>1</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45296</v>
       </c>
       <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>1.460683584213257</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45308</v>
       </c>
       <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>1.006943821907043</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>2</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45309</v>
       </c>
       <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
         <v>1.757555603981018</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45321</v>
       </c>
       <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>1.594405055046082</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45323</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>1.024920582771301</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>2</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45330</v>
       </c>
       <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
         <v>2.002858638763428</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>2</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45331</v>
       </c>
       <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
         <v>0.9973698854446411</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>2</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45348</v>
       </c>
       <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
         <v>0.9966850280761719</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>1</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45354</v>
       </c>
       <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
         <v>1.058708310127258</v>
       </c>
     </row>
